--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7012.69641923442</v>
+        <v>-800.274618570962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655608</v>
+        <v>33970018.24655607</v>
       </c>
     </row>
     <row r="8">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>268.2368329361448</v>
       </c>
       <c r="E11" t="n">
-        <v>388.1111211665043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>56.51955618755142</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>240.5775807901535</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>183.4872045441995</v>
+        <v>230.818053006318</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>22.71789427119348</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>215.4893011384807</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>141.7968099002024</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>194.3561342845444</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>163.4254817987933</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>214.8826269370248</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>174.0227396099806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>192.3085274337932</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.09228531058712</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>111.8760931075859</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>275.4684632867114</v>
+        <v>368.5724630577451</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>104.010444731577</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777213</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>398.1302486828127</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>149.6157531058523</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>26.70110018160173</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>49.34995949258617</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>338.6830497639208</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0012459373933</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>126.5553709841803</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>154.436886991665</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.9350240293732</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>53.19117033386376</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.96684102370097</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.0798797578989</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>54.91274684145261</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -3477,19 +3477,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>170.3034090720304</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>31.42610877424307</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>318.0607455241545</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>84.34003022996011</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>164.6551731938295</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>109.5540470185014</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>30.80498927785586</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>30.42687284080338</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>328.5107569703942</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258614</v>
+        <v>26.70110018160173</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C11" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="D11" t="n">
-        <v>1536.329659438081</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E11" t="n">
         <v>1144.298223916359</v>
@@ -5035,31 +5035,31 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.329659438081</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="12">
@@ -5102,28 +5102,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5135,7 +5135,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.8524940391952</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5235,16 +5235,16 @@
         <v>2118.080353351143</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W13" t="n">
         <v>1559.098440807865</v>
       </c>
       <c r="X13" t="n">
-        <v>1316.090783444074</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y13" t="n">
-        <v>1088.671112758182</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1106.599419841793</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="C14" t="n">
-        <v>668.4569470252168</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="D14" t="n">
-        <v>232.5471621996613</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.898990326701</v>
+        <v>1107.7262209515</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>526.0156699571453</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C16" t="n">
-        <v>526.0156699571453</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D16" t="n">
-        <v>526.0156699571453</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.331138940781</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1950.706446904677</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1663.750938775107</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.645714028612</v>
+        <v>1391.724534361399</v>
       </c>
       <c r="X16" t="n">
-        <v>945.2539593620243</v>
+        <v>1146.332779694812</v>
       </c>
       <c r="Y16" t="n">
-        <v>717.8342886761325</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>1705.790163743865</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W17" t="n">
-        <v>1300.934709154898</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X17" t="n">
-        <v>881.7922457342091</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y17" t="n">
-        <v>473.5061220338625</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.9656139994286</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C19" t="n">
-        <v>412.4039024826535</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>412.4039024826535</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>242.6458987333908</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
         <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1808.577570614173</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V19" t="n">
-        <v>1521.622062484603</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="W19" t="n">
-        <v>1249.595658070895</v>
+        <v>1665.488002587005</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.203903404308</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.7842327184158</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>640.9602806813899</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C20" t="n">
-        <v>640.9602806813899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>640.9602806813899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>640.9602806813899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>640.9602806813899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>241.4575893608671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228018</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.402314586987</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X20" t="n">
-        <v>1067.259851166298</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y20" t="n">
-        <v>1067.259851166298</v>
+        <v>1330.35381220273</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906846</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630993</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345756</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C22" t="n">
-        <v>616.081764785142</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D22" t="n">
-        <v>616.081764785142</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3237610358793</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>269.6167069976354</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>104.8755266101539</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1690.512214359095</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.9602158863578</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="C23" t="n">
-        <v>724.9602158863578</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="D23" t="n">
-        <v>724.9602158863578</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="E23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6007,7 +6007,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V23" t="n">
-        <v>1957.244257596361</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W23" t="n">
-        <v>1552.388803007394</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X23" t="n">
-        <v>1133.246339586704</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.9602158863578</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="24">
@@ -6050,13 +6050,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
         <v>79.1492015823585</v>
@@ -6065,7 +6065,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>663.4738450083642</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>663.4738450083642</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>663.4738450083642</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>493.7158412591014</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>317.0087872208576</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>152.267606833376</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728195</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2209.200554108492</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2209.200554108492</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.200554108492</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X26" t="n">
-        <v>2209.200554108492</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.200554108492</v>
+        <v>1118.582560671843</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6363,22 +6363,22 @@
         <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>443.5200532683665</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D28" t="n">
-        <v>443.5200532683665</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E28" t="n">
-        <v>273.7620495191038</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F28" t="n">
-        <v>97.05499548085996</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
-        <v>97.05499548085996</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895473</v>
@@ -6390,16 +6390,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092375</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827552</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540313</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.033554032792</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C29" t="n">
-        <v>916.8910812162151</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>2189.619248218046</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1781.3331245177</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.1113136517137</v>
+        <v>992.2890823372263</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5496021349386</v>
+        <v>819.7273708204513</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>653.849378021974</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>484.0913742727112</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>307.3843202344674</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895473</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W31" t="n">
-        <v>1396.74135772318</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X31" t="n">
-        <v>1151.349603056593</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.9299323707007</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
         <v>475.073981139747</v>
@@ -6691,31 +6691,31 @@
         <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435801</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2176.554825902915</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X32" t="n">
-        <v>1757.412362482226</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.126238781879</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6837,16 +6837,16 @@
         <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>443.5200532683665</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D34" t="n">
-        <v>277.6420604698892</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>103.7387141991577</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895473</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L34" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>910.9641928553087</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2108.089956131646</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C35" t="n">
-        <v>1669.947483315069</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D35" t="n">
-        <v>1234.037698489514</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E35" t="n">
-        <v>800.2629536478089</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>372.3955240570166</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
         <v>805.440802286702</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.877393424667</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.877393424667</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V37" t="n">
-        <v>1756.921885295098</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>638.2015833324731</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>638.2015833324731</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>638.2015833324731</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.200554108492</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>1076.34405614905</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851416</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C40" t="n">
-        <v>443.5200532683665</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="D40" t="n">
-        <v>443.5200532683665</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E40" t="n">
-        <v>273.7620495191038</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F40" t="n">
-        <v>97.05499548085996</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>359.5348022487598</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092375</v>
+        <v>901.6154856350188</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1485.796561053334</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>649.4346931359541</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>213.5249083103986</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>213.5249083103986</v>
       </c>
       <c r="F41" t="n">
         <v>47.20655154895473</v>
@@ -7411,7 +7411,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228015</v>
@@ -7450,13 +7450,13 @@
         <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906846</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.883012763099</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345751</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>471.6552262893761</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>305.7772334908988</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E43" t="n">
-        <v>305.7772334908988</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F43" t="n">
-        <v>275.0430185001883</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895473</v>
@@ -7648,25 +7648,25 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7785,46 +7785,46 @@
         <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492052</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640077</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>141.4680432173446</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464599</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464599</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>70.05088382580948</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>141.468043217344</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042864</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464597</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>70.75030430845857</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639993</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.3138540411551</v>
       </c>
       <c r="E11" t="n">
-        <v>41.32587622678346</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.3808763442458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.360256329768191</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>245.9497928490883</v>
+        <v>198.6189443869697</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>252.884871360551</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>53.81683923109071</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>217.1939706653094</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>220.594904501938</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>112.1772838329511</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>28.05521018289687</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>248.013835170078</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>74.71580850773545</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>73.92833470389013</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>113.2693808714469</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>153.9685341065764</v>
+        <v>60.86453433554266</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>27.01017528290021</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.8692533779061</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>23.90632609724594</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>106.8642314578489</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>137.5181126888908</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>81.67066052189108</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>92.86763721337911</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>245.9497928490891</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>36.5383975994265</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>218.8718760137038</v>
+        <v>291.2528530245756</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>107.1269275599058</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>31.95669502215975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>340.594917565865</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>69.52134278359704</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>211.5117283456786</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>105.5280097707299</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>305.396991767981</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>86.49606417164721</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>258.9335821010549</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>305.396991767981</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.4142235926367</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.513110657058</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>100.9262404228936</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>305.396991767981</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779064</v>
+        <v>137.5181126888908</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>413587.2007335062</v>
+        <v>413587.2007335061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>413587.2007335063</v>
+        <v>413587.2007335061</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>413587.2007335062</v>
+        <v>413587.2007335061</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>413587.2007335062</v>
+        <v>413587.2007335061</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>413587.2007335062</v>
+        <v>413587.2007335061</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>413587.2007335061</v>
+        <v>413587.2007335062</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>413587.2007335061</v>
+        <v>413587.2007335062</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>149432.6927357765</v>
       </c>
       <c r="G2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="H2" t="n">
         <v>149432.6927357765</v>
@@ -26343,7 +26343,7 @@
         <v>149432.6927357764</v>
       </c>
       <c r="L2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="M2" t="n">
         <v>149432.6927357764</v>
@@ -26355,7 +26355,7 @@
         <v>149432.6927357764</v>
       </c>
       <c r="P2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="F4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="G4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="H4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="I4" t="n">
         <v>12946.16329191559</v>
@@ -26450,13 +26450,13 @@
         <v>12946.16329191559</v>
       </c>
       <c r="M4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
         <v>12946.1632919156</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-460699.7527564527</v>
+        <v>-461253.6331996747</v>
       </c>
       <c r="F6" t="n">
-        <v>90435.44823422312</v>
+        <v>89881.56779100113</v>
       </c>
       <c r="G6" t="n">
-        <v>90435.44823422306</v>
+        <v>89881.5677910011</v>
       </c>
       <c r="H6" t="n">
-        <v>90435.44823422306</v>
+        <v>89881.56779100116</v>
       </c>
       <c r="I6" t="n">
-        <v>90435.44823422308</v>
+        <v>89881.56779100113</v>
       </c>
       <c r="J6" t="n">
-        <v>90435.44823422306</v>
+        <v>89881.56779100119</v>
       </c>
       <c r="K6" t="n">
-        <v>90435.448234223</v>
+        <v>89881.56779100107</v>
       </c>
       <c r="L6" t="n">
-        <v>90435.44823422309</v>
+        <v>89881.56779100107</v>
       </c>
       <c r="M6" t="n">
-        <v>-56615.32016834846</v>
+        <v>-57169.20061157036</v>
       </c>
       <c r="N6" t="n">
-        <v>90435.44823422306</v>
+        <v>89881.56779100113</v>
       </c>
       <c r="O6" t="n">
-        <v>90435.44823422303</v>
+        <v>89881.56779100107</v>
       </c>
       <c r="P6" t="n">
-        <v>90435.44823422302</v>
+        <v>89881.56779100113</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932211</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34210,7 +34210,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35503,10 +35503,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,19 +35652,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712372</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712372</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36132,13 +36132,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916798</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>198.8376634256979</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>260.4234789221539</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36758,19 +36758,19 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>281.852445040951</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,7 +36846,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184533</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,7 +37247,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>227.2024143463632</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37384,7 +37384,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184533</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>168.5281836696284</v>
       </c>
       <c r="L40" t="n">
-        <v>281.852445040951</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619341</v>
@@ -37715,7 +37715,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37779,10 +37779,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
@@ -37952,13 +37952,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.10166275847587</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
